--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H2">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>197.5574777348947</v>
+        <v>126.6602195731339</v>
       </c>
       <c r="R2">
-        <v>1778.017299614052</v>
+        <v>1139.941976158205</v>
       </c>
       <c r="S2">
-        <v>0.1577864957817239</v>
+        <v>0.1466788179095861</v>
       </c>
       <c r="T2">
-        <v>0.1577864957817239</v>
+        <v>0.1466788179095861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H3">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>576.810366464101</v>
+        <v>332.5483963392984</v>
       </c>
       <c r="R3">
-        <v>5191.293298176909</v>
+        <v>2992.935567053685</v>
       </c>
       <c r="S3">
-        <v>0.4606906683485503</v>
+        <v>0.3851075407666761</v>
       </c>
       <c r="T3">
-        <v>0.4606906683485503</v>
+        <v>0.3851075407666761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H4">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>52.13249645885168</v>
+        <v>23.86889823413223</v>
       </c>
       <c r="R4">
-        <v>469.1924681296651</v>
+        <v>214.82008410719</v>
       </c>
       <c r="S4">
-        <v>0.04163752254234418</v>
+        <v>0.0276413682968961</v>
       </c>
       <c r="T4">
-        <v>0.04163752254234417</v>
+        <v>0.0276413682968961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H5">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>15.93743320555633</v>
+        <v>8.985058338635557</v>
       </c>
       <c r="R5">
-        <v>143.436898850007</v>
+        <v>80.86552504772001</v>
       </c>
       <c r="S5">
-        <v>0.01272901317678569</v>
+        <v>0.01040514330704096</v>
       </c>
       <c r="T5">
-        <v>0.01272901317678569</v>
+        <v>0.01040514330704096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>9.467027387374223</v>
+        <v>10.52782352493422</v>
       </c>
       <c r="R6">
-        <v>85.203246486368</v>
+        <v>94.750411724408</v>
       </c>
       <c r="S6">
-        <v>0.007561187225359792</v>
+        <v>0.01219174192972604</v>
       </c>
       <c r="T6">
-        <v>0.007561187225359791</v>
+        <v>0.01219174192972604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>27.64096605831734</v>
@@ -883,10 +883,10 @@
         <v>248.768694524856</v>
       </c>
       <c r="S7">
-        <v>0.02207646718498831</v>
+        <v>0.03200960997049267</v>
       </c>
       <c r="T7">
-        <v>0.0220764671849883</v>
+        <v>0.03200960997049267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>2.498208508262223</v>
+        <v>1.983950045171556</v>
       </c>
       <c r="R8">
-        <v>22.48387657436</v>
+        <v>17.855550406544</v>
       </c>
       <c r="S8">
-        <v>0.001995285477271302</v>
+        <v>0.002297512576546638</v>
       </c>
       <c r="T8">
-        <v>0.001995285477271301</v>
+        <v>0.002297512576546638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>0.7637276926764445</v>
+        <v>0.7468257110968889</v>
       </c>
       <c r="R9">
-        <v>6.873549234087999</v>
+        <v>6.721431399872</v>
       </c>
       <c r="S9">
-        <v>0.0006099790184636097</v>
+        <v>0.0008648612236529958</v>
       </c>
       <c r="T9">
-        <v>0.0006099790184636097</v>
+        <v>0.0008648612236529958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H10">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>11.02205929541245</v>
+        <v>12.83658985248078</v>
       </c>
       <c r="R10">
-        <v>99.19853365871202</v>
+        <v>115.529308672327</v>
       </c>
       <c r="S10">
-        <v>0.008803170259418243</v>
+        <v>0.01486540787547667</v>
       </c>
       <c r="T10">
-        <v>0.008803170259418241</v>
+        <v>0.01486540787547667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H11">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>32.18120687847267</v>
+        <v>33.70266832233767</v>
       </c>
       <c r="R11">
-        <v>289.630861906254</v>
+        <v>303.324014901039</v>
       </c>
       <c r="S11">
-        <v>0.02570269635753719</v>
+        <v>0.03902936191473261</v>
       </c>
       <c r="T11">
-        <v>0.02570269635753718</v>
+        <v>0.03902936191473261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H12">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>2.908558429554446</v>
+        <v>2.419033046798445</v>
       </c>
       <c r="R12">
-        <v>26.17702586599001</v>
+        <v>21.771297421186</v>
       </c>
       <c r="S12">
-        <v>0.002323026430776954</v>
+        <v>0.002801360277002725</v>
       </c>
       <c r="T12">
-        <v>0.002323026430776953</v>
+        <v>0.002801360277002725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H13">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.889175827826889</v>
+        <v>0.9106056272631113</v>
       </c>
       <c r="R13">
-        <v>8.002582450442</v>
+        <v>8.195450645368002</v>
       </c>
       <c r="S13">
-        <v>0.0007101727538498383</v>
+        <v>0.001054526491734437</v>
       </c>
       <c r="T13">
-        <v>0.0007101727538498383</v>
+        <v>0.001054526491734437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H14">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>75.56914124934357</v>
+        <v>72.25145215990166</v>
       </c>
       <c r="R14">
-        <v>680.1222712440921</v>
+        <v>650.2630694391149</v>
       </c>
       <c r="S14">
-        <v>0.06035605497539685</v>
+        <v>0.08367076601305129</v>
       </c>
       <c r="T14">
-        <v>0.06035605497539685</v>
+        <v>0.08367076601305129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H15">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>220.6399097477043</v>
+        <v>189.697322726395</v>
       </c>
       <c r="R15">
-        <v>1985.759187729339</v>
+        <v>1707.275904537555</v>
       </c>
       <c r="S15">
-        <v>0.1762221232415384</v>
+        <v>0.2196789106468816</v>
       </c>
       <c r="T15">
-        <v>0.1762221232415384</v>
+        <v>0.2196789106468816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H16">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>19.94157869269056</v>
+        <v>13.61566058139667</v>
       </c>
       <c r="R16">
-        <v>179.474208234215</v>
+        <v>122.54094523257</v>
       </c>
       <c r="S16">
-        <v>0.01592707022964468</v>
+        <v>0.01576761042944714</v>
       </c>
       <c r="T16">
-        <v>0.01592707022964468</v>
+        <v>0.01576761042944714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H17">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>6.096342972544111</v>
+        <v>5.125393867906666</v>
       </c>
       <c r="R17">
-        <v>54.86708675289699</v>
+        <v>46.12854481116</v>
       </c>
       <c r="S17">
-        <v>0.004869066996350748</v>
+        <v>0.005935460371056026</v>
       </c>
       <c r="T17">
-        <v>0.004869066996350748</v>
+        <v>0.005935460371056026</v>
       </c>
     </row>
   </sheetData>
